--- a/Excelsheet/Registration_Data.xlsx
+++ b/Excelsheet/Registration_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edusys\Documents\GitHub\Vabro_Testscripts\Excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8126F20-149C-4DC0-9C4B-4D1FB0570B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E9D858-EE4E-4D49-91F8-89577F386EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52869642-9300-438F-A5AB-FCF6884EB507}"/>
   </bookViews>
@@ -114,9 +114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3DC34F-108C-475D-88E9-F5A9869EAAAB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,10 +445,9 @@
     <col min="2" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +464,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -474,16 +474,15 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -492,16 +491,15 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -511,18 +509,8 @@
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{97C5C931-758C-45C0-A00B-3A24F620DC92}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2B83223A-3810-462F-AEFA-E288C09B02EC}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{9EB5A088-6D5D-4CCF-951C-EE006E3FE0A0}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{A9DFD758-9451-4A81-8B71-4410F6FCAB0D}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{8D4FD7F0-C597-4268-9A6B-12B0E75E0163}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{DCF66AA6-8E78-4B66-B4DD-B6E62B67B6FC}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{B18AA929-5706-485D-823D-4A10DF36B278}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>